--- a/Documentacion/Requerimintos.xlsx
+++ b/Documentacion/Requerimintos.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanr\Desktop\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanr\Documents\GitHub\LadysWeb\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D499609-144E-43CB-A809-B6A9DCA8594A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA547ABE-6169-4476-A415-65808841E37E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{152D4973-3EF7-4FD5-AEAB-382F2C2FE3E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Funcional" sheetId="1" r:id="rId1"/>
+    <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -213,16 +213,16 @@
     <t>El administrador puede configurar los mensajes, label, contenido del site por idioma</t>
   </si>
   <si>
-    <t>El armiistrador puede crear niveles y/o perfiles</t>
-  </si>
-  <si>
     <t>El administrador puede delegar funciones</t>
   </si>
   <si>
-    <t>Asignar funcioes particulares a cada funcion de la plataforma</t>
-  </si>
-  <si>
-    <t>El administrador podra suspender cualquier usuario con comportamiento indebido</t>
+    <t>El administrador puede crear niveles y/o perfiles</t>
+  </si>
+  <si>
+    <t>Asignar funciones particulares a cada función de la plataforma</t>
+  </si>
+  <si>
+    <t>El administrador podrá suspender cualquier usuario con comportamiento indebido</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,12 +856,12 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>56</v>

--- a/Documentacion/Requerimintos.xlsx
+++ b/Documentacion/Requerimintos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanr\Documents\GitHub\LadysWeb\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanr\source\repos\LadysWeb\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CA547ABE-6169-4476-A415-65808841E37E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7555C63D-33EC-4D5D-8333-C37C974E6FB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{152D4973-3EF7-4FD5-AEAB-382F2C2FE3E7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Responsiva para escritorio</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>El administrador podrá suspender cualquier usuario con comportamiento indebido</t>
+  </si>
+  <si>
+    <t>Motivar a la navegacion entre los diversos modulos</t>
   </si>
 </sst>
 </file>
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE675A-9AFD-467E-8266-7E3DA57C2A9F}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,6 +875,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentacion/Requerimintos.xlsx
+++ b/Documentacion/Requerimintos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanr\source\repos\LadysWeb\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agonzalez\Documents\GitHub\LadysWeb\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7555C63D-33EC-4D5D-8333-C37C974E6FB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF967F3-D421-4310-AE1A-62C857EEDA93}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{152D4973-3EF7-4FD5-AEAB-382F2C2FE3E7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Responsiva para escritorio</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Motivar a la navegacion entre los diversos modulos</t>
+  </si>
+  <si>
+    <t>prueba alex</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE675A-9AFD-467E-8266-7E3DA57C2A9F}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,6 +883,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
